--- a/pa-temp-fix-system.com/php/export/未传广告信息收集-核心词+车型+CPasin(2025.07.22).xlsx
+++ b/pa-temp-fix-system.com/php/export/未传广告信息收集-核心词+车型+CPasin(2025.07.22).xlsx
@@ -5087,9 +5087,9 @@
   <dimension ref="A1:E909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A665" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D723" sqref="D723"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="4"/>
@@ -20580,7 +20580,7 @@
   <dimension ref="A1:F591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D356" sqref="D356"/>
     </sheetView>
@@ -32397,7 +32397,7 @@
   <dimension ref="A1:E438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D179" sqref="D179"/>
     </sheetView>
